--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Nodal</t>
   </si>
   <si>
     <t>Acvr2a</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H2">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I2">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J2">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>20.06638448577067</v>
+        <v>6.581147821351443</v>
       </c>
       <c r="R2">
-        <v>180.597460371936</v>
+        <v>59.230330392163</v>
       </c>
       <c r="S2">
-        <v>0.1471798037338588</v>
+        <v>0.05695847603133079</v>
       </c>
       <c r="T2">
-        <v>0.1471798037338587</v>
+        <v>0.05695847603133082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H3">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I3">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J3">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
-        <v>45.44767072902911</v>
+        <v>19.38089070889544</v>
       </c>
       <c r="R3">
-        <v>409.029036561262</v>
+        <v>174.428016380059</v>
       </c>
       <c r="S3">
-        <v>0.3333425242999198</v>
+        <v>0.1677376088297277</v>
       </c>
       <c r="T3">
-        <v>0.3333425242999198</v>
+        <v>0.1677376088297277</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H4">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I4">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J4">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>7.428207891694001</v>
+        <v>4.067835065529222</v>
       </c>
       <c r="R4">
-        <v>66.85387102524601</v>
+        <v>36.610515589763</v>
       </c>
       <c r="S4">
-        <v>0.05448326679721922</v>
+        <v>0.03520627288261911</v>
       </c>
       <c r="T4">
-        <v>0.05448326679721922</v>
+        <v>0.03520627288261911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H5">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I5">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J5">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>10.82852430342111</v>
+        <v>6.206327447847221</v>
       </c>
       <c r="R5">
-        <v>97.45671873079</v>
+        <v>55.856947030625</v>
       </c>
       <c r="S5">
-        <v>0.07942338007302614</v>
+        <v>0.0537144830623489</v>
       </c>
       <c r="T5">
-        <v>0.07942338007302613</v>
+        <v>0.05371448306234891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.468615333333333</v>
+        <v>0.6262823333333333</v>
       </c>
       <c r="H6">
-        <v>4.405846</v>
+        <v>1.878847</v>
       </c>
       <c r="I6">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145872</v>
       </c>
       <c r="J6">
-        <v>0.6804334416772793</v>
+        <v>0.3385023860145873</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>8.998999689151777</v>
+        <v>2.875348201773777</v>
       </c>
       <c r="R6">
-        <v>80.990997202366</v>
+        <v>25.878133815964</v>
       </c>
       <c r="S6">
-        <v>0.06600446677325526</v>
+        <v>0.02488554520856066</v>
       </c>
       <c r="T6">
-        <v>0.06600446677325525</v>
+        <v>0.02488554520856067</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.220547</v>
       </c>
       <c r="I7">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J7">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N7">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q7">
-        <v>5.558969919727999</v>
+        <v>4.275281717940334</v>
       </c>
       <c r="R7">
-        <v>50.03072927755199</v>
+        <v>38.477535461463</v>
       </c>
       <c r="S7">
-        <v>0.04077307012273014</v>
+        <v>0.03700168084182093</v>
       </c>
       <c r="T7">
-        <v>0.04077307012273013</v>
+        <v>0.03700168084182094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.220547</v>
       </c>
       <c r="I8">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J8">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q8">
         <v>12.59032162388433</v>
@@ -948,10 +948,10 @@
         <v>113.312894614959</v>
       </c>
       <c r="S8">
-        <v>0.09234553772571583</v>
+        <v>0.1089666349864026</v>
       </c>
       <c r="T8">
-        <v>0.09234553772571583</v>
+        <v>0.1089666349864027</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>1.220547</v>
       </c>
       <c r="I9">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J9">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N9">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O9">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P9">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q9">
-        <v>2.057828815983</v>
+        <v>2.642569557673667</v>
       </c>
       <c r="R9">
-        <v>18.520459343847</v>
+        <v>23.783126019063</v>
       </c>
       <c r="S9">
-        <v>0.01509344353832284</v>
+        <v>0.02287089408986581</v>
       </c>
       <c r="T9">
-        <v>0.01509344353832283</v>
+        <v>0.02287089408986582</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>1.220547</v>
       </c>
       <c r="I10">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J10">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N10">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q10">
-        <v>2.999814985128332</v>
+        <v>4.031788829791667</v>
       </c>
       <c r="R10">
-        <v>26.99833486615499</v>
+        <v>36.286099468125</v>
       </c>
       <c r="S10">
-        <v>0.02200257754764733</v>
+        <v>0.03489430015232788</v>
       </c>
       <c r="T10">
-        <v>0.02200257754764733</v>
+        <v>0.03489430015232788</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>1.220547</v>
       </c>
       <c r="I11">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="J11">
-        <v>0.1884997786892411</v>
+        <v>0.219899795855089</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N11">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O11">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P11">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q11">
-        <v>2.492983657076333</v>
+        <v>1.867899632929333</v>
       </c>
       <c r="R11">
-        <v>22.436852913687</v>
+        <v>16.811096696364</v>
       </c>
       <c r="S11">
-        <v>0.01828514975482493</v>
+        <v>0.01616628578467171</v>
       </c>
       <c r="T11">
-        <v>0.01828514975482492</v>
+        <v>0.01616628578467172</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H12">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I12">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J12">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N12">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q12">
-        <v>1.655894389642666</v>
+        <v>2.550722953012889</v>
       </c>
       <c r="R12">
-        <v>14.903049506784</v>
+        <v>22.956506577116</v>
       </c>
       <c r="S12">
-        <v>0.01214539726598114</v>
+        <v>0.02207598068385516</v>
       </c>
       <c r="T12">
-        <v>0.01214539726598114</v>
+        <v>0.02207598068385517</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H13">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I13">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J13">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q13">
-        <v>3.750378800719777</v>
+        <v>7.511650569620888</v>
       </c>
       <c r="R13">
-        <v>33.753409206478</v>
+        <v>67.60485512658799</v>
       </c>
       <c r="S13">
-        <v>0.02750769657628047</v>
+        <v>0.06501178525991899</v>
       </c>
       <c r="T13">
-        <v>0.02750769657628047</v>
+        <v>0.06501178525991899</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H14">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I14">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J14">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N14">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O14">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P14">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q14">
-        <v>0.612981764686</v>
+        <v>1.576612553368444</v>
       </c>
       <c r="R14">
-        <v>5.516835882173999</v>
+        <v>14.189512980316</v>
       </c>
       <c r="S14">
-        <v>0.004496003546772215</v>
+        <v>0.01364525623332542</v>
       </c>
       <c r="T14">
-        <v>0.004496003546772214</v>
+        <v>0.01364525623332542</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H15">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I15">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J15">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N15">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q15">
-        <v>0.8935786441677775</v>
+        <v>2.405449976944444</v>
       </c>
       <c r="R15">
-        <v>8.042207797509999</v>
+        <v>21.6490497925</v>
       </c>
       <c r="S15">
-        <v>0.006554082005288064</v>
+        <v>0.02081867306062427</v>
       </c>
       <c r="T15">
-        <v>0.006554082005288064</v>
+        <v>0.02081867306062427</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1211913333333333</v>
+        <v>0.2427346666666667</v>
       </c>
       <c r="H16">
-        <v>0.363574</v>
+        <v>0.728204</v>
       </c>
       <c r="I16">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="J16">
-        <v>0.0561499217458747</v>
+        <v>0.1311968412038694</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N16">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O16">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P16">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q16">
-        <v>0.7426047830504443</v>
+        <v>1.114428190227555</v>
       </c>
       <c r="R16">
-        <v>6.683443047453999</v>
+        <v>10.029853712048</v>
       </c>
       <c r="S16">
-        <v>0.005446742351552802</v>
+        <v>0.009645145966145572</v>
       </c>
       <c r="T16">
-        <v>0.005446742351552801</v>
+        <v>0.009645145966145572</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H17">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I17">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J17">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N17">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q17">
-        <v>2.209342431984</v>
+        <v>2.008163132129</v>
       </c>
       <c r="R17">
-        <v>19.884081887856</v>
+        <v>18.073468189161</v>
       </c>
       <c r="S17">
-        <v>0.01620474210243873</v>
+        <v>0.01738023741956968</v>
       </c>
       <c r="T17">
-        <v>0.01620474210243873</v>
+        <v>0.01738023741956968</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H18">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I18">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J18">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q18">
-        <v>5.003864420502999</v>
+        <v>5.913860506697</v>
       </c>
       <c r="R18">
-        <v>45.03477978452699</v>
+        <v>53.224744560273</v>
       </c>
       <c r="S18">
-        <v>0.03670156842866782</v>
+        <v>0.05118324205247279</v>
       </c>
       <c r="T18">
-        <v>0.03670156842866782</v>
+        <v>0.0511832420524728</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H19">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I19">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J19">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N19">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O19">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P19">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q19">
-        <v>0.817858089999</v>
+        <v>1.241254052929</v>
       </c>
       <c r="R19">
-        <v>7.360722809991</v>
+        <v>11.171286476361</v>
       </c>
       <c r="S19">
-        <v>0.005998698632210447</v>
+        <v>0.01074279763070728</v>
       </c>
       <c r="T19">
-        <v>0.005998698632210446</v>
+        <v>0.01074279763070728</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H20">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I20">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J20">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N20">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q20">
-        <v>1.192238603635</v>
+        <v>1.893790916875</v>
       </c>
       <c r="R20">
-        <v>10.730147432715</v>
+        <v>17.044118251875</v>
       </c>
       <c r="S20">
-        <v>0.008744646740490775</v>
+        <v>0.01639036950320712</v>
       </c>
       <c r="T20">
-        <v>0.008744646740490773</v>
+        <v>0.01639036950320712</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.161697</v>
+        <v>0.191103</v>
       </c>
       <c r="H21">
-        <v>0.4850909999999999</v>
+        <v>0.573309</v>
       </c>
       <c r="I21">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="J21">
-        <v>0.07491685788760502</v>
+        <v>0.1032901904325562</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N21">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O21">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P21">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q21">
-        <v>0.9908048892789998</v>
+        <v>0.877380117812</v>
       </c>
       <c r="R21">
-        <v>8.917244003511</v>
+        <v>7.896421060308</v>
       </c>
       <c r="S21">
-        <v>0.007267201983797247</v>
+        <v>0.007593543826599347</v>
       </c>
       <c r="T21">
-        <v>0.007267201983797246</v>
+        <v>0.007593543826599348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.149562</v>
+      </c>
+      <c r="I22">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J22">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.50827633333333</v>
+      </c>
+      <c r="N22">
+        <v>31.524829</v>
+      </c>
+      <c r="O22">
+        <v>0.1682660991018133</v>
+      </c>
+      <c r="P22">
+        <v>0.1682660991018134</v>
+      </c>
+      <c r="Q22">
+        <v>4.026638386099777</v>
+      </c>
+      <c r="R22">
+        <v>36.239745474898</v>
+      </c>
+      <c r="S22">
+        <v>0.03484972412523675</v>
+      </c>
+      <c r="T22">
+        <v>0.03484972412523676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.149562</v>
+      </c>
+      <c r="I23">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J23">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>30.94593233333333</v>
+      </c>
+      <c r="N23">
+        <v>92.83779699999999</v>
+      </c>
+      <c r="O23">
+        <v>0.4955285863849104</v>
+      </c>
+      <c r="P23">
+        <v>0.4955285863849105</v>
+      </c>
+      <c r="Q23">
+        <v>11.85808928832378</v>
+      </c>
+      <c r="R23">
+        <v>106.722803594914</v>
+      </c>
+      <c r="S23">
+        <v>0.1026293152563883</v>
+      </c>
+      <c r="T23">
+        <v>0.1026293152563883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.149562</v>
+      </c>
+      <c r="I24">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J24">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>6.495209666666667</v>
+      </c>
+      <c r="N24">
+        <v>19.485629</v>
+      </c>
+      <c r="O24">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="P24">
+        <v>0.1040059814559238</v>
+      </c>
+      <c r="Q24">
+        <v>2.488882071610889</v>
+      </c>
+      <c r="R24">
+        <v>22.399938644498</v>
+      </c>
+      <c r="S24">
+        <v>0.02154076061940615</v>
+      </c>
+      <c r="T24">
+        <v>0.02154076061940615</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.149562</v>
+      </c>
+      <c r="I25">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J25">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.909791666666667</v>
+      </c>
+      <c r="N25">
+        <v>29.729375</v>
+      </c>
+      <c r="O25">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="P25">
+        <v>0.1586827309986352</v>
+      </c>
+      <c r="Q25">
+        <v>3.797306642638889</v>
+      </c>
+      <c r="R25">
+        <v>34.17575978375</v>
+      </c>
+      <c r="S25">
+        <v>0.03286490522012699</v>
+      </c>
+      <c r="T25">
+        <v>0.03286490522012699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3831873333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.149562</v>
+      </c>
+      <c r="I26">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="J26">
+        <v>0.2071107864938981</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.591137333333333</v>
+      </c>
+      <c r="N26">
+        <v>13.773412</v>
+      </c>
+      <c r="O26">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="P26">
+        <v>0.07351660205871713</v>
+      </c>
+      <c r="Q26">
+        <v>1.759265671727111</v>
+      </c>
+      <c r="R26">
+        <v>15.833391045544</v>
+      </c>
+      <c r="S26">
+        <v>0.01522608127273983</v>
+      </c>
+      <c r="T26">
+        <v>0.01522608127273983</v>
       </c>
     </row>
   </sheetData>
